--- a/data-extra/kaya and past ncbr template.xlsx
+++ b/data-extra/kaya and past ncbr template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\BTR\data-extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlopez\Github\BTR\data-extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F6C0DC-B60A-498A-B265-A12132A06218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964C691F-4910-4027-8213-B0DBFE739898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{9E205A07-EA31-4CB4-B508-487E2D74E189}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{9E205A07-EA31-4CB4-B508-487E2D74E189}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>br_version</t>
   </si>
@@ -79,18 +79,45 @@
   <si>
     <t>2022 BR</t>
   </si>
+  <si>
+    <t>2010 CAR</t>
+  </si>
+  <si>
+    <t>2005$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,14 +140,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47582D77-7242-4F6C-BDCF-BFA2A074B57F}">
-  <dimension ref="A1:BM6"/>
+  <dimension ref="A1:BM13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,311 +685,1899 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="7">
         <v>282.2</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="7">
         <v>285</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="7">
         <v>287.60000000000002</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="7">
         <v>290.10000000000002</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="7">
         <v>292.8</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="7">
         <v>295.5</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="7">
         <v>298.39999999999998</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="7">
         <v>301.2</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="7">
         <v>304.10000000000002</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="7">
         <v>306.8</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="7">
         <v>309.3</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="7">
         <v>311.60000000000002</v>
       </c>
-      <c r="AA2">
-        <v>313.8</v>
-      </c>
-      <c r="AB2">
-        <v>316</v>
-      </c>
-      <c r="AC2">
-        <v>318.3</v>
-      </c>
-      <c r="AD2">
-        <v>320.60000000000002</v>
-      </c>
-      <c r="AE2">
-        <v>322.89999999999998</v>
-      </c>
-      <c r="AF2">
-        <v>325</v>
-      </c>
-      <c r="AG2">
-        <v>326.7</v>
-      </c>
-      <c r="AH2">
-        <v>328.2</v>
-      </c>
-      <c r="AI2">
-        <v>331.5</v>
-      </c>
-      <c r="AJ2">
-        <v>332</v>
-      </c>
-      <c r="AK2">
-        <v>333.15</v>
-      </c>
-      <c r="AL2">
-        <v>334.68</v>
-      </c>
-      <c r="AM2">
-        <v>336.35</v>
-      </c>
-      <c r="AN2">
-        <v>338.14</v>
-      </c>
-      <c r="AO2">
-        <v>339.95</v>
-      </c>
-      <c r="AP2">
-        <v>341.78</v>
-      </c>
-      <c r="AQ2">
-        <v>343.61</v>
-      </c>
-      <c r="AR2">
-        <v>345.45</v>
-      </c>
-      <c r="AS2">
-        <v>347.29</v>
-      </c>
-      <c r="AT2">
-        <v>349.11</v>
-      </c>
-      <c r="AU2">
-        <v>350.88</v>
-      </c>
-      <c r="AV2">
-        <v>352.61</v>
-      </c>
-      <c r="AW2">
-        <v>354.3</v>
-      </c>
-      <c r="AX2">
-        <v>355.94</v>
-      </c>
-      <c r="AY2">
-        <v>357.52</v>
-      </c>
-      <c r="AZ2">
-        <v>359.04</v>
-      </c>
-      <c r="BA2">
-        <v>360.5</v>
-      </c>
-      <c r="BB2">
-        <v>361.92</v>
-      </c>
-      <c r="BC2">
-        <v>363.3</v>
-      </c>
-      <c r="BD2">
-        <v>364.64</v>
-      </c>
-      <c r="BE2">
-        <v>365.96</v>
-      </c>
-      <c r="BF2">
-        <v>367.25</v>
-      </c>
-      <c r="BG2">
-        <v>368.52</v>
-      </c>
-      <c r="BH2">
-        <v>369.76</v>
-      </c>
-      <c r="BI2">
-        <v>370.98</v>
-      </c>
-      <c r="BJ2">
-        <v>372.2</v>
-      </c>
-      <c r="BK2">
-        <v>373.4</v>
-      </c>
-      <c r="BL2">
-        <v>374.59</v>
-      </c>
-      <c r="BM2">
-        <v>375.78</v>
+      <c r="AA2" s="7">
+        <v>313.89999999999998</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>316.10000000000002</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>318.39999999999998</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>320.7</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>323.10000000000002</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>325.10000000000002</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>326.8</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>328.3</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>330.40802000000002</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>332.66256700000002</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>334.98495500000001</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>337.28607199999999</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>339.56256100000002</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>341.81274400000001</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>344.037781</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>346.23037699999998</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>348.38626099999999</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>350.510986</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>352.59774800000002</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>354.63107300000001</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>356.61285400000003</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>358.54745500000001</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>360.43542500000001</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>362.27773999999999</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>364.07598899999999</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>365.83209199999999</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>367.54803500000003</v>
+      </c>
+      <c r="BB2" s="7">
+        <v>369.22619600000002</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>370.86914100000001</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>372.47976699999998</v>
+      </c>
+      <c r="BE2" s="7">
+        <v>374.06146200000001</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>375.61776700000001</v>
+      </c>
+      <c r="BG2" s="7">
+        <v>377.15304600000002</v>
+      </c>
+      <c r="BH2" s="7">
+        <v>378.67199699999998</v>
+      </c>
+      <c r="BI2" s="7">
+        <v>380.17904700000003</v>
+      </c>
+      <c r="BJ2" s="7">
+        <v>381.677277</v>
+      </c>
+      <c r="BK2" s="7">
+        <v>383.17071499999997</v>
+      </c>
+      <c r="BL2" s="7">
+        <v>384.66336100000001</v>
+      </c>
+      <c r="BM2" s="7">
+        <v>386.15859999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>282.16000000000003</v>
-      </c>
-      <c r="P3">
-        <v>284.97000000000003</v>
-      </c>
-      <c r="Q3">
-        <v>287.62</v>
-      </c>
-      <c r="R3">
-        <v>290.11</v>
-      </c>
-      <c r="S3">
-        <v>292.81</v>
-      </c>
-      <c r="T3">
-        <v>295.52</v>
-      </c>
-      <c r="U3">
-        <v>298.38</v>
-      </c>
-      <c r="V3">
-        <v>301.23</v>
-      </c>
-      <c r="W3">
-        <v>304.08999999999997</v>
-      </c>
-      <c r="X3">
-        <v>306.77</v>
-      </c>
-      <c r="Y3">
-        <v>309.35000000000002</v>
-      </c>
-      <c r="Z3">
-        <v>312.37597699999998</v>
-      </c>
-      <c r="AA3">
-        <v>315.31097399999999</v>
-      </c>
-      <c r="AB3">
-        <v>318.37936400000001</v>
-      </c>
-      <c r="AC3">
-        <v>321.47506700000002</v>
-      </c>
-      <c r="AD3">
-        <v>324.59454299999999</v>
-      </c>
-      <c r="AE3">
-        <v>327.73461900000001</v>
-      </c>
-      <c r="AF3">
-        <v>330.89257800000001</v>
-      </c>
-      <c r="AG3">
-        <v>334.06603999999999</v>
-      </c>
-      <c r="AH3">
-        <v>337.25262500000002</v>
-      </c>
-      <c r="AI3">
-        <v>340.45004299999999</v>
-      </c>
-      <c r="AJ3">
-        <v>343.655914</v>
-      </c>
-      <c r="AK3">
-        <v>346.86496</v>
-      </c>
-      <c r="AL3">
-        <v>350.06649800000002</v>
-      </c>
-      <c r="AM3">
-        <v>353.26388500000002</v>
-      </c>
-      <c r="AN3">
-        <v>356.46078499999999</v>
-      </c>
-      <c r="AO3">
-        <v>359.65643299999999</v>
-      </c>
-      <c r="AP3">
-        <v>362.84960899999999</v>
-      </c>
-      <c r="AQ3">
-        <v>366.040527</v>
-      </c>
-      <c r="AR3">
-        <v>369.22872899999999</v>
-      </c>
-      <c r="AS3">
-        <v>372.41494799999998</v>
+    <row r="3" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="7">
+        <v>13131</v>
+      </c>
+      <c r="P3" s="7">
+        <v>13262.1</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>13493.1</v>
+      </c>
+      <c r="R3" s="7">
+        <v>13879.1</v>
+      </c>
+      <c r="S3" s="7">
+        <v>14406.4</v>
+      </c>
+      <c r="T3" s="7">
+        <v>14912.5</v>
+      </c>
+      <c r="U3" s="7">
+        <v>15338.3</v>
+      </c>
+      <c r="V3" s="7">
+        <v>15626</v>
+      </c>
+      <c r="W3" s="7">
+        <v>15604.7</v>
+      </c>
+      <c r="X3" s="7">
+        <v>15208.8</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>15598.8</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>15840.7</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>16197</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>16495.400000000001</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>16912</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>17432.2</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>17730.5</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>18144.099999999999</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>18687.8</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>19091.7</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>18171.386718999998</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>18739.230468999998</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>19535.0625</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>20170.175781000002</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>20682.980468999998</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>21192.648438</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>21653.730468999998</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>22078.480468999998</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>22477.355468999998</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>22858.132812</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>23288.818359000001</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>23759.802734000001</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>24256.835938</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>24769.533202999999</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>25310.607422000001</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>25841.998047000001</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>26331.703125</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>26809.158202999999</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>27307.626952999999</v>
+      </c>
+      <c r="BB3" s="7">
+        <v>27826.453125</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>28370.613281000002</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>28925.115234000001</v>
+      </c>
+      <c r="BE3" s="7">
+        <v>29509.078125</v>
+      </c>
+      <c r="BF3" s="7">
+        <v>30115.902343999998</v>
+      </c>
+      <c r="BG3" s="7">
+        <v>30722.546875</v>
+      </c>
+      <c r="BH3" s="7">
+        <v>31317.330077999999</v>
+      </c>
+      <c r="BI3" s="7">
+        <v>31908.9375</v>
+      </c>
+      <c r="BJ3" s="7">
+        <v>32501.925781000002</v>
+      </c>
+      <c r="BK3" s="7">
+        <v>33120.199219000002</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>33745.574219000002</v>
+      </c>
+      <c r="BM3" s="7">
+        <v>34364.589844000002</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+    <row r="4" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="7">
+        <v>98.702224000000001</v>
+      </c>
+      <c r="P4" s="7">
+        <v>96.063733999999997</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>97.535391000000004</v>
+      </c>
+      <c r="R4" s="7">
+        <v>97.834772999999998</v>
+      </c>
+      <c r="S4" s="7">
+        <v>100.002368</v>
+      </c>
+      <c r="T4" s="7">
+        <v>100.10157599999999</v>
+      </c>
+      <c r="U4" s="7">
+        <v>99.391541000000004</v>
+      </c>
+      <c r="V4" s="7">
+        <v>100.89336299999999</v>
+      </c>
+      <c r="W4" s="7">
+        <v>98.753710999999996</v>
+      </c>
+      <c r="X4" s="7">
+        <v>93.942216000000002</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>97.513238999999999</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>96.862560000000002</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>94.374078999999995</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>97.116800999999995</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>98.276088000000001</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>97.375089000000003</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>97.337416000000005</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>97.598596999999998</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>101.16242800000001</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>100.292908</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>92.924216999999999</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>95.101814000000005</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>97.008933999999996</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>97.734245000000001</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>98.203406999999999</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>98.448975000000004</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>98.200737000000004</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>98.086449000000002</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>98.181740000000005</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>98.327309</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>98.564751000000001</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>98.846901000000003</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>99.012459000000007</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>99.244110000000006</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>99.597244000000003</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>99.993195</v>
+      </c>
+      <c r="AY4" s="7">
+        <v>100.349998</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>100.763313</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>101.166237</v>
+      </c>
+      <c r="BB4" s="7">
+        <v>101.588745</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>101.941841</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>102.433907</v>
+      </c>
+      <c r="BE4" s="7">
+        <v>103.094162</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>103.811378</v>
+      </c>
+      <c r="BG4" s="7">
+        <v>104.417542</v>
+      </c>
+      <c r="BH4" s="7">
+        <v>105.01915</v>
+      </c>
+      <c r="BI4" s="7">
+        <v>105.67247</v>
+      </c>
+      <c r="BJ4" s="7">
+        <v>106.33665499999999</v>
+      </c>
+      <c r="BK4" s="7">
+        <v>107.071068</v>
+      </c>
+      <c r="BL4" s="7">
+        <v>107.853691</v>
+      </c>
+      <c r="BM4" s="7">
+        <v>108.664101</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>249.62</v>
+      </c>
+      <c r="F5" s="8">
+        <v>252.98</v>
+      </c>
+      <c r="G5" s="8">
+        <v>256.51</v>
+      </c>
+      <c r="H5" s="8">
+        <v>259.92</v>
+      </c>
+      <c r="I5" s="8">
+        <v>263.13</v>
+      </c>
+      <c r="J5" s="8">
+        <v>266.27999999999997</v>
+      </c>
+      <c r="K5" s="8">
+        <v>269.39</v>
+      </c>
+      <c r="L5" s="8">
+        <v>272.64999999999998</v>
+      </c>
+      <c r="M5" s="8">
+        <v>275.85000000000002</v>
+      </c>
+      <c r="N5" s="8">
+        <v>279.04000000000002</v>
+      </c>
+      <c r="O5">
+        <v>282.16000000000003</v>
+      </c>
+      <c r="P5">
+        <v>284.97000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>287.62</v>
+      </c>
+      <c r="R5">
+        <v>290.11</v>
+      </c>
+      <c r="S5">
+        <v>292.81</v>
+      </c>
+      <c r="T5">
+        <v>295.52</v>
+      </c>
+      <c r="U5">
+        <v>298.38</v>
+      </c>
+      <c r="V5">
+        <v>301.23</v>
+      </c>
+      <c r="W5">
+        <v>304.08999999999997</v>
+      </c>
+      <c r="X5">
+        <v>306.77</v>
+      </c>
+      <c r="Y5">
+        <v>309.35000000000002</v>
+      </c>
+      <c r="Z5">
+        <v>312.37597699999998</v>
+      </c>
+      <c r="AA5">
+        <v>315.31097399999999</v>
+      </c>
+      <c r="AB5">
+        <v>318.37936400000001</v>
+      </c>
+      <c r="AC5">
+        <v>321.47506700000002</v>
+      </c>
+      <c r="AD5">
+        <v>324.59454299999999</v>
+      </c>
+      <c r="AE5">
+        <v>327.73461900000001</v>
+      </c>
+      <c r="AF5">
+        <v>330.89257800000001</v>
+      </c>
+      <c r="AG5">
+        <v>334.06603999999999</v>
+      </c>
+      <c r="AH5">
+        <v>337.25262500000002</v>
+      </c>
+      <c r="AI5">
+        <v>340.45004299999999</v>
+      </c>
+      <c r="AJ5">
+        <v>343.655914</v>
+      </c>
+      <c r="AK5">
+        <v>346.86496</v>
+      </c>
+      <c r="AL5">
+        <v>350.06649800000002</v>
+      </c>
+      <c r="AM5">
+        <v>353.26388500000002</v>
+      </c>
+      <c r="AN5">
+        <v>356.46078499999999</v>
+      </c>
+      <c r="AO5">
+        <v>359.65643299999999</v>
+      </c>
+      <c r="AP5">
+        <v>362.84960899999999</v>
+      </c>
+      <c r="AQ5">
+        <v>366.040527</v>
+      </c>
+      <c r="AR5">
+        <v>369.22872899999999</v>
+      </c>
+      <c r="AS5">
+        <v>372.41494799999998</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9183.5894150354088</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9162.0808402073053</v>
+      </c>
+      <c r="G6" s="8">
+        <v>9472.9255093985612</v>
+      </c>
+      <c r="H6" s="8">
+        <v>9743.1555825048345</v>
+      </c>
+      <c r="I6" s="8">
+        <v>10140.034551008501</v>
+      </c>
+      <c r="J6" s="8">
+        <v>10395.048451497019</v>
+      </c>
+      <c r="K6" s="8">
+        <v>10783.804500783688</v>
+      </c>
+      <c r="L6" s="8">
+        <v>11264.429622341459</v>
+      </c>
+      <c r="M6" s="8">
+        <v>11755.008180122873</v>
+      </c>
+      <c r="N6" s="8">
+        <v>12322.468452183464</v>
+      </c>
+      <c r="O6">
+        <v>12832.381845847585</v>
+      </c>
+      <c r="P6">
+        <v>12970.929101788186</v>
+      </c>
+      <c r="Q6">
+        <v>13206.150537142334</v>
+      </c>
+      <c r="R6">
+        <v>13541.707185923324</v>
+      </c>
+      <c r="S6">
+        <v>14011.349205441211</v>
+      </c>
+      <c r="T6">
+        <v>14441.635109316187</v>
+      </c>
+      <c r="U6">
+        <v>14825.471644147494</v>
+      </c>
+      <c r="V6">
+        <v>15109.087372864873</v>
+      </c>
+      <c r="W6">
+        <v>15058.176118617501</v>
+      </c>
+      <c r="X6">
+        <v>14595.970574439118</v>
+      </c>
+      <c r="Y6">
+        <v>14945.02728614413</v>
+      </c>
+      <c r="Z6">
+        <v>15215.142951937487</v>
+      </c>
+      <c r="AA6">
+        <v>15551.614859221801</v>
+      </c>
+      <c r="AB6">
+        <v>15781.293349502901</v>
+      </c>
+      <c r="AC6">
+        <v>16239.194095438579</v>
+      </c>
+      <c r="AD6">
+        <v>16794.293014289473</v>
+      </c>
+      <c r="AE6">
+        <v>17307.77292207718</v>
+      </c>
+      <c r="AF6">
+        <v>17836.131367052982</v>
+      </c>
+      <c r="AG6">
+        <v>18320.317862413765</v>
+      </c>
+      <c r="AH6">
+        <v>18812.573202375097</v>
+      </c>
+      <c r="AI6">
+        <v>19288.28417289233</v>
+      </c>
+      <c r="AJ6">
+        <v>19737.189866944296</v>
+      </c>
+      <c r="AK6">
+        <v>20211.233886302012</v>
+      </c>
+      <c r="AL6">
+        <v>20705.7215097189</v>
+      </c>
+      <c r="AM6">
+        <v>21201.348737515302</v>
+      </c>
+      <c r="AN6">
+        <v>21719.76134291304</v>
+      </c>
+      <c r="AO6">
+        <v>22237.132663287837</v>
+      </c>
+      <c r="AP6">
+        <v>22757.947374924202</v>
+      </c>
+      <c r="AQ6">
+        <v>23290.263150548581</v>
+      </c>
+      <c r="AR6">
+        <v>23841.205866807006</v>
+      </c>
+      <c r="AS6">
+        <v>24431.831385358153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8">
+        <v>84.485124999999996</v>
+      </c>
+      <c r="F7" s="8">
+        <v>84.437971000000005</v>
+      </c>
+      <c r="G7" s="8">
+        <v>85.782972999999998</v>
+      </c>
+      <c r="H7" s="8">
+        <v>87.423616999999993</v>
+      </c>
+      <c r="I7" s="8">
+        <v>89.091331000000011</v>
+      </c>
+      <c r="J7" s="8">
+        <v>91.029066999999998</v>
+      </c>
+      <c r="K7" s="8">
+        <v>94.022224000000008</v>
+      </c>
+      <c r="L7" s="8">
+        <v>94.602213000000006</v>
+      </c>
+      <c r="M7" s="8">
+        <v>95.017899</v>
+      </c>
+      <c r="N7" s="8">
+        <v>96.651957999999993</v>
+      </c>
+      <c r="O7">
+        <v>98.814458999999999</v>
+      </c>
+      <c r="P7">
+        <v>96.168154999999999</v>
+      </c>
+      <c r="Q7">
+        <v>97.645117999999997</v>
+      </c>
+      <c r="R7">
+        <v>97.977654999999999</v>
+      </c>
+      <c r="S7">
+        <v>100.16179700000001</v>
+      </c>
+      <c r="T7">
+        <v>100.28151099999999</v>
+      </c>
+      <c r="U7">
+        <v>99.629469</v>
+      </c>
+      <c r="V7">
+        <v>101.29596099999999</v>
+      </c>
+      <c r="W7">
+        <v>99.274527000000006</v>
+      </c>
+      <c r="X7">
+        <v>94.559406999999993</v>
+      </c>
+      <c r="Y7">
+        <v>97.722053000000002</v>
+      </c>
+      <c r="Z7">
+        <v>97.301269000000005</v>
+      </c>
+      <c r="AA7">
+        <v>96.065025000000006</v>
+      </c>
+      <c r="AB7">
+        <v>96.260848999999993</v>
+      </c>
+      <c r="AC7">
+        <v>96.560912999999999</v>
+      </c>
+      <c r="AD7">
+        <v>97.724097999999998</v>
+      </c>
+      <c r="AE7">
+        <v>98.345344999999995</v>
+      </c>
+      <c r="AF7">
+        <v>99.127251000000001</v>
+      </c>
+      <c r="AG7">
+        <v>99.904662999999999</v>
+      </c>
+      <c r="AH7">
+        <v>100.677559</v>
+      </c>
+      <c r="AI7">
+        <v>101.03877300000001</v>
+      </c>
+      <c r="AJ7">
+        <v>101.272942</v>
+      </c>
+      <c r="AK7">
+        <v>101.716286</v>
+      </c>
+      <c r="AL7">
+        <v>101.97007000000001</v>
+      </c>
+      <c r="AM7">
+        <v>102.180122</v>
+      </c>
+      <c r="AN7">
+        <v>102.338669</v>
+      </c>
+      <c r="AO7">
+        <v>102.427567</v>
+      </c>
+      <c r="AP7">
+        <v>102.457588</v>
+      </c>
+      <c r="AQ7">
+        <v>102.513184</v>
+      </c>
+      <c r="AR7">
+        <v>102.617531</v>
+      </c>
+      <c r="AS7">
+        <v>102.80903600000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>249.6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7">
+        <v>256.5</v>
+      </c>
+      <c r="H8" s="7">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="I8" s="7">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="J8" s="7">
+        <v>266.3</v>
+      </c>
+      <c r="K8" s="7">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="L8" s="7">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="M8" s="7">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="N8" s="7">
+        <v>279</v>
+      </c>
+      <c r="O8" s="7">
+        <v>282.2</v>
+      </c>
+      <c r="P8" s="7">
+        <v>285</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>287.60000000000002</v>
+      </c>
+      <c r="R8" s="7">
+        <v>290.10000000000002</v>
+      </c>
+      <c r="S8" s="7">
+        <v>292.8</v>
+      </c>
+      <c r="T8" s="7">
+        <v>295.5</v>
+      </c>
+      <c r="U8" s="7">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="V8" s="7">
+        <v>301.2</v>
+      </c>
+      <c r="W8" s="7">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="X8" s="7">
+        <v>306.8</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>309.3</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>313.8</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>316</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>318.3</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>320.60000000000002</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>322.89999999999998</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>325</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>326.7</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>328.2</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>331.5</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>332</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>333.15</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>334.68</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>336.35</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>338.14</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>339.95</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>341.78</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>343.61</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>345.45</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>347.29</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>349.11</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>350.88</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>352.61</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>354.3</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>355.94</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>357.52</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>359.04</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>360.5</v>
+      </c>
+      <c r="BB8" s="7">
+        <v>361.92</v>
+      </c>
+      <c r="BC8" s="7">
+        <v>363.3</v>
+      </c>
+      <c r="BD8" s="7">
+        <v>364.64</v>
+      </c>
+      <c r="BE8" s="7">
+        <v>365.96</v>
+      </c>
+      <c r="BF8" s="7">
+        <v>367.25</v>
+      </c>
+      <c r="BG8" s="7">
+        <v>368.52</v>
+      </c>
+      <c r="BH8" s="7">
+        <v>369.76</v>
+      </c>
+      <c r="BI8" s="7">
+        <v>370.98</v>
+      </c>
+      <c r="BJ8" s="7">
+        <v>372.2</v>
+      </c>
+      <c r="BK8" s="7">
+        <v>373.4</v>
+      </c>
+      <c r="BL8" s="7">
+        <v>374.59</v>
+      </c>
+      <c r="BM8" s="7">
+        <v>375.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7">
+        <v>9371.5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>9361.2999999999993</v>
+      </c>
+      <c r="G9" s="7">
+        <v>9691.1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>9957.7000000000007</v>
+      </c>
+      <c r="I9" s="7">
+        <v>10358.9</v>
+      </c>
+      <c r="J9" s="7">
+        <v>10637</v>
+      </c>
+      <c r="K9" s="7">
+        <v>11038.3</v>
+      </c>
+      <c r="L9" s="7">
+        <v>11529.2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>12045.8</v>
+      </c>
+      <c r="N9" s="7">
+        <v>12623.4</v>
+      </c>
+      <c r="O9" s="7">
+        <v>13138</v>
+      </c>
+      <c r="P9" s="7">
+        <v>13263.4</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>13488.4</v>
+      </c>
+      <c r="R9" s="7">
+        <v>13865.5</v>
+      </c>
+      <c r="S9" s="7">
+        <v>14399.7</v>
+      </c>
+      <c r="T9" s="7">
+        <v>14901.3</v>
+      </c>
+      <c r="U9" s="7">
+        <v>15315.9</v>
+      </c>
+      <c r="V9" s="7">
+        <v>15623.9</v>
+      </c>
+      <c r="W9" s="7">
+        <v>15643</v>
+      </c>
+      <c r="X9" s="7">
+        <v>15236.3</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>15649</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>15891.5</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>16254</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>16553.3</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>16932.099999999999</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>17390.3</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>17680.3</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>18079.099999999999</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>18606.8</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>19032.7</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>18384.7</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>19438.87</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>20303.060000000001</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>20862.09</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>21484.09</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>22061.07</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>22609.41</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>23060.26</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>23516.82</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>24014.52</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>24555</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>25077.85</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>25619.29</v>
+      </c>
+      <c r="AV9" s="7">
+        <v>26179.599999999999</v>
+      </c>
+      <c r="AW9" s="7">
+        <v>26734.86</v>
+      </c>
+      <c r="AX9" s="7">
+        <v>27278.78</v>
+      </c>
+      <c r="AY9" s="7">
+        <v>27816.73</v>
+      </c>
+      <c r="AZ9" s="7">
+        <v>28383.759999999998</v>
+      </c>
+      <c r="BA9" s="7">
+        <v>28943.43</v>
+      </c>
+      <c r="BB9" s="7">
+        <v>29525.47</v>
+      </c>
+      <c r="BC9" s="7">
+        <v>30134.959999999999</v>
+      </c>
+      <c r="BD9" s="7">
+        <v>30703.85</v>
+      </c>
+      <c r="BE9" s="7">
+        <v>31299</v>
+      </c>
+      <c r="BF9" s="7">
+        <v>31912.46</v>
+      </c>
+      <c r="BG9" s="7">
+        <v>32530.06</v>
+      </c>
+      <c r="BH9" s="7">
+        <v>33192.910000000003</v>
+      </c>
+      <c r="BI9" s="7">
+        <v>33877.379999999997</v>
+      </c>
+      <c r="BJ9" s="7">
+        <v>34526.269999999997</v>
+      </c>
+      <c r="BK9" s="7">
+        <v>35184.42</v>
+      </c>
+      <c r="BL9" s="7">
+        <v>35901.26</v>
+      </c>
+      <c r="BM9" s="7">
+        <v>36652.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>6</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3">
+        <v>84.43</v>
+      </c>
+      <c r="F10" s="4">
+        <v>84.38</v>
+      </c>
+      <c r="G10" s="4">
+        <v>85.72</v>
+      </c>
+      <c r="H10" s="4">
+        <v>87.27</v>
+      </c>
+      <c r="I10" s="4">
+        <v>88.98</v>
+      </c>
+      <c r="J10" s="4">
+        <v>90.93</v>
+      </c>
+      <c r="K10" s="4">
+        <v>93.93</v>
+      </c>
+      <c r="L10" s="4">
+        <v>94.51</v>
+      </c>
+      <c r="M10" s="4">
+        <v>94.92</v>
+      </c>
+      <c r="N10" s="4">
+        <v>96.54</v>
+      </c>
+      <c r="O10" s="4">
+        <v>98.7</v>
+      </c>
+      <c r="P10" s="4">
+        <v>96.06</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>97.54</v>
+      </c>
+      <c r="R10" s="4">
+        <v>97.83</v>
+      </c>
+      <c r="S10" s="4">
+        <v>100</v>
+      </c>
+      <c r="T10" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>99.39</v>
+      </c>
+      <c r="V10" s="4">
+        <v>100.89</v>
+      </c>
+      <c r="W10" s="4">
+        <v>98.75</v>
+      </c>
+      <c r="X10" s="4">
+        <v>93.94</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>97.51</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>96.87</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>94.39</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>97.13</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>98.3</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>97.41</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>97.38</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>97.66</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>101.23</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>100.47</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>92.97</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>97</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>98.82</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>99.74</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>99.64</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>99.84</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>100.05</v>
+      </c>
+      <c r="AP10" s="4">
+        <v>99.92</v>
+      </c>
+      <c r="AQ10" s="4">
+        <v>99.84</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>99.87</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>99.96</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>100.32</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>100.43</v>
+      </c>
+      <c r="AW10" s="4">
+        <v>100.57</v>
+      </c>
+      <c r="AX10" s="4">
+        <v>100.76</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>101.04</v>
+      </c>
+      <c r="AZ10" s="4">
+        <v>101.41</v>
+      </c>
+      <c r="BA10" s="4">
+        <v>101.85</v>
+      </c>
+      <c r="BB10" s="4">
+        <v>102.3</v>
+      </c>
+      <c r="BC10" s="4">
+        <v>102.71</v>
+      </c>
+      <c r="BD10" s="4">
+        <v>103.2</v>
+      </c>
+      <c r="BE10" s="4">
+        <v>103.75</v>
+      </c>
+      <c r="BF10" s="4">
+        <v>104.3</v>
+      </c>
+      <c r="BG10" s="4">
+        <v>104.84</v>
+      </c>
+      <c r="BH10" s="4">
+        <v>105.38</v>
+      </c>
+      <c r="BI10" s="4">
+        <v>106</v>
+      </c>
+      <c r="BJ10" s="4">
+        <v>106.59</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>107.1</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>107.78</v>
+      </c>
+      <c r="BM10" s="4">
+        <v>108.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>249.62</v>
+      </c>
+      <c r="F11">
+        <v>252.98</v>
+      </c>
+      <c r="G11">
+        <v>256.51</v>
+      </c>
+      <c r="H11">
+        <v>259.92</v>
+      </c>
+      <c r="I11">
+        <v>263.13</v>
+      </c>
+      <c r="J11">
+        <v>266.27999999999997</v>
+      </c>
+      <c r="K11">
+        <v>269.39</v>
+      </c>
+      <c r="L11">
+        <v>272.64999999999998</v>
+      </c>
+      <c r="M11">
+        <v>275.85000000000002</v>
+      </c>
+      <c r="N11">
+        <v>279.04000000000002</v>
+      </c>
+      <c r="O11">
+        <v>282.16000000000003</v>
+      </c>
+      <c r="P11">
+        <v>284.97000000000003</v>
+      </c>
+      <c r="Q11">
+        <v>287.62</v>
+      </c>
+      <c r="R11">
+        <v>290.11</v>
+      </c>
+      <c r="S11">
+        <v>292.81</v>
+      </c>
+      <c r="T11">
+        <v>295.52</v>
+      </c>
+      <c r="U11">
+        <v>299.56594848632801</v>
+      </c>
+      <c r="V11">
+        <v>302.40954589843801</v>
+      </c>
+      <c r="W11">
+        <v>305.36541748046898</v>
+      </c>
+      <c r="X11">
+        <v>308.35592651367199</v>
+      </c>
+      <c r="Y11">
+        <v>311.37261962890602</v>
+      </c>
+      <c r="Z11">
+        <v>314.37658691406301</v>
+      </c>
+      <c r="AA11">
+        <v>317.41369628906301</v>
+      </c>
+      <c r="AB11">
+        <v>320.48211669921898</v>
+      </c>
+      <c r="AC11">
+        <v>323.57778930664102</v>
+      </c>
+      <c r="AD11">
+        <v>326.69729614257801</v>
+      </c>
+      <c r="AE11">
+        <v>329.83734130859398</v>
+      </c>
+      <c r="AF11">
+        <v>332.99530029296898</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>336.16876220703102</v>
+      </c>
+      <c r="AH11">
+        <v>339.35534667968801</v>
+      </c>
+      <c r="AI11">
+        <v>342.55276489257801</v>
+      </c>
+      <c r="AJ11">
+        <v>345.75851440429699</v>
+      </c>
+      <c r="AK11">
+        <v>348.97048950195301</v>
+      </c>
+      <c r="AL11">
+        <v>352.18600463867199</v>
+      </c>
+      <c r="AM11">
+        <v>355.40274047851602</v>
+      </c>
+      <c r="AN11">
+        <v>358.61898803710898</v>
+      </c>
+      <c r="AO11">
+        <v>361.83401489257801</v>
+      </c>
+      <c r="AP11">
+        <v>365.04650878906301</v>
+      </c>
+      <c r="AQ11">
+        <v>368.25674438476602</v>
+      </c>
+      <c r="AR11">
+        <v>371.46426391601602</v>
+      </c>
+      <c r="AS11">
+        <v>374.66973876953102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>8027.1</v>
+      </c>
+      <c r="F12">
+        <v>8008.3</v>
+      </c>
+      <c r="G12">
+        <v>8280</v>
+      </c>
+      <c r="H12">
+        <v>8516.2000000000007</v>
+      </c>
+      <c r="I12">
+        <v>8863.1</v>
+      </c>
+      <c r="J12">
+        <v>9086</v>
+      </c>
+      <c r="K12">
+        <v>9425.7999999999993</v>
+      </c>
+      <c r="L12">
+        <v>9845.9</v>
+      </c>
+      <c r="M12">
+        <v>10274.700000000001</v>
+      </c>
+      <c r="N12">
+        <v>10770.7</v>
+      </c>
+      <c r="O12">
+        <v>11216.4</v>
+      </c>
+      <c r="P12">
+        <v>11337.5</v>
+      </c>
+      <c r="Q12">
+        <v>11543.1</v>
+      </c>
+      <c r="R12">
+        <v>11836.4</v>
+      </c>
+      <c r="S12">
+        <v>12246.9</v>
+      </c>
+      <c r="T12">
+        <v>12623</v>
+      </c>
+      <c r="U12">
+        <v>12787.001024248853</v>
+      </c>
+      <c r="V12">
+        <v>13046.282149936465</v>
+      </c>
+      <c r="W12">
+        <v>13213.15397973457</v>
+      </c>
+      <c r="X12">
+        <v>12830.021069970604</v>
+      </c>
+      <c r="Y12">
+        <v>13131.395771439722</v>
+      </c>
+      <c r="Z12">
+        <v>13613.685287409804</v>
+      </c>
+      <c r="AA12">
+        <v>14069.434424638202</v>
+      </c>
+      <c r="AB12">
+        <v>14503.036729118399</v>
+      </c>
+      <c r="AC12">
+        <v>14874.772289700993</v>
+      </c>
+      <c r="AD12">
+        <v>15227.700952725696</v>
+      </c>
+      <c r="AE12">
+        <v>15605.659782155119</v>
+      </c>
+      <c r="AF12">
+        <v>16026.761375878328</v>
+      </c>
+      <c r="AG12">
+        <v>16488.660814153965</v>
+      </c>
+      <c r="AH12">
+        <v>16954.101401855147</v>
+      </c>
+      <c r="AI12">
+        <v>17432.650765309892</v>
+      </c>
+      <c r="AJ12">
+        <v>17876.278403224631</v>
+      </c>
+      <c r="AK12">
+        <v>18332.188954070305</v>
+      </c>
+      <c r="AL12">
+        <v>18816.07602262231</v>
+      </c>
+      <c r="AM12">
+        <v>19320.940227983647</v>
+      </c>
+      <c r="AN12">
+        <v>19866.544788115913</v>
+      </c>
+      <c r="AO12">
+        <v>20402.325229048871</v>
+      </c>
+      <c r="AP12">
+        <v>20921.73877141931</v>
+      </c>
+      <c r="AQ12">
+        <v>21429.997085034287</v>
+      </c>
+      <c r="AR12">
+        <v>21946.573727802494</v>
+      </c>
+      <c r="AS12">
+        <v>22500.649186123494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>84.485124999999996</v>
+      </c>
+      <c r="F13">
+        <v>84.437971000000005</v>
+      </c>
+      <c r="G13">
+        <v>85.782972999999998</v>
+      </c>
+      <c r="H13">
+        <v>87.423616999999993</v>
+      </c>
+      <c r="I13">
+        <v>89.091331000000011</v>
+      </c>
+      <c r="J13">
+        <v>91.029066999999998</v>
+      </c>
+      <c r="K13">
+        <v>94.022224000000008</v>
+      </c>
+      <c r="L13">
+        <v>94.602213000000006</v>
+      </c>
+      <c r="M13">
+        <v>95.017899</v>
+      </c>
+      <c r="N13">
+        <v>96.651957999999993</v>
+      </c>
+      <c r="O13">
+        <v>98.814458999999999</v>
+      </c>
+      <c r="P13">
+        <v>96.168154999999999</v>
+      </c>
+      <c r="Q13">
+        <v>97.645117999999997</v>
+      </c>
+      <c r="R13">
+        <v>97.977654999999999</v>
+      </c>
+      <c r="S13">
+        <v>100.16179700000001</v>
+      </c>
+      <c r="T13">
+        <v>100.28151099999999</v>
+      </c>
+      <c r="U13">
+        <v>100.018341064453</v>
+      </c>
+      <c r="V13">
+        <v>101.895538330078</v>
+      </c>
+      <c r="W13">
+        <v>100.526527404785</v>
+      </c>
+      <c r="X13">
+        <v>98.051170349121094</v>
+      </c>
+      <c r="Y13">
+        <v>99.061332702636705</v>
+      </c>
+      <c r="Z13">
+        <v>100.562995910645</v>
+      </c>
+      <c r="AA13">
+        <v>101.648513793945</v>
+      </c>
+      <c r="AB13">
+        <v>102.14591217041</v>
+      </c>
+      <c r="AC13">
+        <v>102.17959594726599</v>
+      </c>
+      <c r="AD13">
+        <v>102.078399658203</v>
+      </c>
+      <c r="AE13">
+        <v>102.36636352539099</v>
+      </c>
+      <c r="AF13">
+        <v>102.770713806152</v>
+      </c>
+      <c r="AG13">
+        <v>103.30143737793</v>
+      </c>
+      <c r="AH13">
+        <v>103.896690368652</v>
+      </c>
+      <c r="AI13">
+        <v>104.67276763916</v>
+      </c>
+      <c r="AJ13">
+        <v>105.16796875</v>
+      </c>
+      <c r="AK13">
+        <v>105.81777191162099</v>
+      </c>
+      <c r="AL13">
+        <v>106.65236663818401</v>
+      </c>
+      <c r="AM13">
+        <v>107.454917907715</v>
+      </c>
+      <c r="AN13">
+        <v>108.15700531005901</v>
+      </c>
+      <c r="AO13">
+        <v>108.793869018555</v>
+      </c>
+      <c r="AP13">
+        <v>109.50503540039099</v>
+      </c>
+      <c r="AQ13">
+        <v>110.06471252441401</v>
+      </c>
+      <c r="AR13">
+        <v>110.43196105957</v>
+      </c>
+      <c r="AS13">
+        <v>110.95726776123</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-extra/kaya and past ncbr template.xlsx
+++ b/data-extra/kaya and past ncbr template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlopez\Github\BTR\data-extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964C691F-4910-4027-8213-B0DBFE739898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C087DFA-4A1B-459F-8176-61F6A8D3FA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{9E205A07-EA31-4CB4-B508-487E2D74E189}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9E205A07-EA31-4CB4-B508-487E2D74E189}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>br_version</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>2005$</t>
+  </si>
+  <si>
+    <t>mmtco2e</t>
+  </si>
+  <si>
+    <t>gross emissions</t>
+  </si>
+  <si>
+    <t>AR5</t>
   </si>
 </sst>
 </file>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47582D77-7242-4F6C-BDCF-BFA2A074B57F}">
-  <dimension ref="A1:BM13"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,800 +1189,533 @@
         <v>108.664101</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8">
-        <v>249.62</v>
-      </c>
-      <c r="F5" s="8">
-        <v>252.98</v>
-      </c>
-      <c r="G5" s="8">
-        <v>256.51</v>
-      </c>
-      <c r="H5" s="8">
-        <v>259.92</v>
-      </c>
-      <c r="I5" s="8">
-        <v>263.13</v>
-      </c>
-      <c r="J5" s="8">
-        <v>266.27999999999997</v>
-      </c>
-      <c r="K5" s="8">
-        <v>269.39</v>
-      </c>
-      <c r="L5" s="8">
-        <v>272.64999999999998</v>
-      </c>
-      <c r="M5" s="8">
-        <v>275.85000000000002</v>
-      </c>
-      <c r="N5" s="8">
-        <v>279.04000000000002</v>
-      </c>
-      <c r="O5">
-        <v>282.16000000000003</v>
-      </c>
-      <c r="P5">
-        <v>284.97000000000003</v>
-      </c>
-      <c r="Q5">
-        <v>287.62</v>
-      </c>
-      <c r="R5">
-        <v>290.11</v>
-      </c>
-      <c r="S5">
-        <v>292.81</v>
-      </c>
-      <c r="T5">
-        <v>295.52</v>
-      </c>
-      <c r="U5">
-        <v>298.38</v>
-      </c>
-      <c r="V5">
-        <v>301.23</v>
-      </c>
-      <c r="W5">
-        <v>304.08999999999997</v>
-      </c>
-      <c r="X5">
-        <v>306.77</v>
-      </c>
-      <c r="Y5">
-        <v>309.35000000000002</v>
-      </c>
-      <c r="Z5">
-        <v>312.37597699999998</v>
-      </c>
-      <c r="AA5">
-        <v>315.31097399999999</v>
-      </c>
-      <c r="AB5">
-        <v>318.37936400000001</v>
-      </c>
-      <c r="AC5">
-        <v>321.47506700000002</v>
-      </c>
-      <c r="AD5">
-        <v>324.59454299999999</v>
-      </c>
-      <c r="AE5">
-        <v>327.73461900000001</v>
-      </c>
-      <c r="AF5">
-        <v>330.89257800000001</v>
-      </c>
-      <c r="AG5">
-        <v>334.06603999999999</v>
-      </c>
-      <c r="AH5">
-        <v>337.25262500000002</v>
-      </c>
-      <c r="AI5">
-        <v>340.45004299999999</v>
-      </c>
-      <c r="AJ5">
-        <v>343.655914</v>
-      </c>
-      <c r="AK5">
-        <v>346.86496</v>
-      </c>
-      <c r="AL5">
-        <v>350.06649800000002</v>
-      </c>
-      <c r="AM5">
-        <v>353.26388500000002</v>
-      </c>
-      <c r="AN5">
-        <v>356.46078499999999</v>
-      </c>
-      <c r="AO5">
-        <v>359.65643299999999</v>
-      </c>
-      <c r="AP5">
-        <v>362.84960899999999</v>
-      </c>
-      <c r="AQ5">
-        <v>366.040527</v>
-      </c>
-      <c r="AR5">
-        <v>369.22872899999999</v>
-      </c>
-      <c r="AS5">
-        <v>372.41494799999998</v>
-      </c>
+    <row r="5" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="7"/>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8">
-        <v>9183.5894150354088</v>
-      </c>
-      <c r="F6" s="8">
-        <v>9162.0808402073053</v>
-      </c>
-      <c r="G6" s="8">
-        <v>9472.9255093985612</v>
-      </c>
-      <c r="H6" s="8">
-        <v>9743.1555825048345</v>
-      </c>
-      <c r="I6" s="8">
-        <v>10140.034551008501</v>
-      </c>
-      <c r="J6" s="8">
-        <v>10395.048451497019</v>
-      </c>
-      <c r="K6" s="8">
-        <v>10783.804500783688</v>
-      </c>
-      <c r="L6" s="8">
-        <v>11264.429622341459</v>
-      </c>
-      <c r="M6" s="8">
-        <v>11755.008180122873</v>
-      </c>
-      <c r="N6" s="8">
-        <v>12322.468452183464</v>
-      </c>
-      <c r="O6">
-        <v>12832.381845847585</v>
-      </c>
-      <c r="P6">
-        <v>12970.929101788186</v>
-      </c>
-      <c r="Q6">
-        <v>13206.150537142334</v>
-      </c>
-      <c r="R6">
-        <v>13541.707185923324</v>
-      </c>
-      <c r="S6">
-        <v>14011.349205441211</v>
-      </c>
-      <c r="T6">
-        <v>14441.635109316187</v>
-      </c>
-      <c r="U6">
-        <v>14825.471644147494</v>
-      </c>
-      <c r="V6">
-        <v>15109.087372864873</v>
-      </c>
-      <c r="W6">
-        <v>15058.176118617501</v>
-      </c>
-      <c r="X6">
-        <v>14595.970574439118</v>
-      </c>
-      <c r="Y6">
-        <v>14945.02728614413</v>
-      </c>
-      <c r="Z6">
-        <v>15215.142951937487</v>
-      </c>
-      <c r="AA6">
-        <v>15551.614859221801</v>
-      </c>
-      <c r="AB6">
-        <v>15781.293349502901</v>
-      </c>
-      <c r="AC6">
-        <v>16239.194095438579</v>
-      </c>
-      <c r="AD6">
-        <v>16794.293014289473</v>
-      </c>
-      <c r="AE6">
-        <v>17307.77292207718</v>
-      </c>
-      <c r="AF6">
-        <v>17836.131367052982</v>
-      </c>
-      <c r="AG6">
-        <v>18320.317862413765</v>
-      </c>
-      <c r="AH6">
-        <v>18812.573202375097</v>
-      </c>
-      <c r="AI6">
-        <v>19288.28417289233</v>
-      </c>
-      <c r="AJ6">
-        <v>19737.189866944296</v>
-      </c>
-      <c r="AK6">
-        <v>20211.233886302012</v>
-      </c>
-      <c r="AL6">
-        <v>20705.7215097189</v>
-      </c>
-      <c r="AM6">
-        <v>21201.348737515302</v>
-      </c>
-      <c r="AN6">
-        <v>21719.76134291304</v>
-      </c>
-      <c r="AO6">
-        <v>22237.132663287837</v>
-      </c>
-      <c r="AP6">
-        <v>22757.947374924202</v>
-      </c>
-      <c r="AQ6">
-        <v>23290.263150548581</v>
-      </c>
-      <c r="AR6">
-        <v>23841.205866807006</v>
-      </c>
-      <c r="AS6">
-        <v>24431.831385358153</v>
-      </c>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="7"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="8">
-        <v>84.485124999999996</v>
+        <v>249.62</v>
       </c>
       <c r="F7" s="8">
-        <v>84.437971000000005</v>
+        <v>252.98</v>
       </c>
       <c r="G7" s="8">
-        <v>85.782972999999998</v>
+        <v>256.51</v>
       </c>
       <c r="H7" s="8">
-        <v>87.423616999999993</v>
+        <v>259.92</v>
       </c>
       <c r="I7" s="8">
-        <v>89.091331000000011</v>
+        <v>263.13</v>
       </c>
       <c r="J7" s="8">
-        <v>91.029066999999998</v>
+        <v>266.27999999999997</v>
       </c>
       <c r="K7" s="8">
-        <v>94.022224000000008</v>
+        <v>269.39</v>
       </c>
       <c r="L7" s="8">
-        <v>94.602213000000006</v>
+        <v>272.64999999999998</v>
       </c>
       <c r="M7" s="8">
-        <v>95.017899</v>
+        <v>275.85000000000002</v>
       </c>
       <c r="N7" s="8">
-        <v>96.651957999999993</v>
+        <v>279.04000000000002</v>
       </c>
       <c r="O7">
-        <v>98.814458999999999</v>
+        <v>282.16000000000003</v>
       </c>
       <c r="P7">
-        <v>96.168154999999999</v>
+        <v>284.97000000000003</v>
       </c>
       <c r="Q7">
-        <v>97.645117999999997</v>
+        <v>287.62</v>
       </c>
       <c r="R7">
-        <v>97.977654999999999</v>
+        <v>290.11</v>
       </c>
       <c r="S7">
-        <v>100.16179700000001</v>
+        <v>292.81</v>
       </c>
       <c r="T7">
-        <v>100.28151099999999</v>
+        <v>295.52</v>
       </c>
       <c r="U7">
-        <v>99.629469</v>
+        <v>298.38</v>
       </c>
       <c r="V7">
-        <v>101.29596099999999</v>
+        <v>301.23</v>
       </c>
       <c r="W7">
-        <v>99.274527000000006</v>
+        <v>304.08999999999997</v>
       </c>
       <c r="X7">
-        <v>94.559406999999993</v>
+        <v>306.77</v>
       </c>
       <c r="Y7">
-        <v>97.722053000000002</v>
+        <v>309.35000000000002</v>
       </c>
       <c r="Z7">
-        <v>97.301269000000005</v>
+        <v>312.37597699999998</v>
       </c>
       <c r="AA7">
-        <v>96.065025000000006</v>
+        <v>315.31097399999999</v>
       </c>
       <c r="AB7">
-        <v>96.260848999999993</v>
+        <v>318.37936400000001</v>
       </c>
       <c r="AC7">
-        <v>96.560912999999999</v>
+        <v>321.47506700000002</v>
       </c>
       <c r="AD7">
-        <v>97.724097999999998</v>
+        <v>324.59454299999999</v>
       </c>
       <c r="AE7">
-        <v>98.345344999999995</v>
+        <v>327.73461900000001</v>
       </c>
       <c r="AF7">
-        <v>99.127251000000001</v>
+        <v>330.89257800000001</v>
       </c>
       <c r="AG7">
-        <v>99.904662999999999</v>
+        <v>334.06603999999999</v>
       </c>
       <c r="AH7">
-        <v>100.677559</v>
+        <v>337.25262500000002</v>
       </c>
       <c r="AI7">
-        <v>101.03877300000001</v>
+        <v>340.45004299999999</v>
       </c>
       <c r="AJ7">
-        <v>101.272942</v>
+        <v>343.655914</v>
       </c>
       <c r="AK7">
-        <v>101.716286</v>
+        <v>346.86496</v>
       </c>
       <c r="AL7">
-        <v>101.97007000000001</v>
+        <v>350.06649800000002</v>
       </c>
       <c r="AM7">
-        <v>102.180122</v>
+        <v>353.26388500000002</v>
       </c>
       <c r="AN7">
-        <v>102.338669</v>
+        <v>356.46078499999999</v>
       </c>
       <c r="AO7">
-        <v>102.427567</v>
+        <v>359.65643299999999</v>
       </c>
       <c r="AP7">
-        <v>102.457588</v>
+        <v>362.84960899999999</v>
       </c>
       <c r="AQ7">
-        <v>102.513184</v>
+        <v>366.040527</v>
       </c>
       <c r="AR7">
-        <v>102.617531</v>
+        <v>369.22872899999999</v>
       </c>
       <c r="AS7">
-        <v>102.80903600000001</v>
+        <v>372.41494799999998</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7">
-        <v>249.6</v>
-      </c>
-      <c r="F8" s="7">
-        <v>253</v>
-      </c>
-      <c r="G8" s="7">
-        <v>256.5</v>
-      </c>
-      <c r="H8" s="7">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="I8" s="7">
-        <v>263.10000000000002</v>
-      </c>
-      <c r="J8" s="7">
-        <v>266.3</v>
-      </c>
-      <c r="K8" s="7">
-        <v>269.39999999999998</v>
-      </c>
-      <c r="L8" s="7">
-        <v>272.60000000000002</v>
-      </c>
-      <c r="M8" s="7">
-        <v>275.89999999999998</v>
-      </c>
-      <c r="N8" s="7">
-        <v>279</v>
-      </c>
-      <c r="O8" s="7">
-        <v>282.2</v>
-      </c>
-      <c r="P8" s="7">
-        <v>285</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>287.60000000000002</v>
-      </c>
-      <c r="R8" s="7">
-        <v>290.10000000000002</v>
-      </c>
-      <c r="S8" s="7">
-        <v>292.8</v>
-      </c>
-      <c r="T8" s="7">
-        <v>295.5</v>
-      </c>
-      <c r="U8" s="7">
-        <v>298.39999999999998</v>
-      </c>
-      <c r="V8" s="7">
-        <v>301.2</v>
-      </c>
-      <c r="W8" s="7">
-        <v>304.10000000000002</v>
-      </c>
-      <c r="X8" s="7">
-        <v>306.8</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>309.3</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>313.8</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>316</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>318.3</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>320.60000000000002</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>322.89999999999998</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>325</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>326.7</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>328.2</v>
-      </c>
-      <c r="AI8" s="7">
-        <v>331.5</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>332</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>333.15</v>
-      </c>
-      <c r="AL8" s="7">
-        <v>334.68</v>
-      </c>
-      <c r="AM8" s="7">
-        <v>336.35</v>
-      </c>
-      <c r="AN8" s="7">
-        <v>338.14</v>
-      </c>
-      <c r="AO8" s="7">
-        <v>339.95</v>
-      </c>
-      <c r="AP8" s="7">
-        <v>341.78</v>
-      </c>
-      <c r="AQ8" s="7">
-        <v>343.61</v>
-      </c>
-      <c r="AR8" s="7">
-        <v>345.45</v>
-      </c>
-      <c r="AS8" s="7">
-        <v>347.29</v>
-      </c>
-      <c r="AT8" s="7">
-        <v>349.11</v>
-      </c>
-      <c r="AU8" s="7">
-        <v>350.88</v>
-      </c>
-      <c r="AV8" s="7">
-        <v>352.61</v>
-      </c>
-      <c r="AW8" s="7">
-        <v>354.3</v>
-      </c>
-      <c r="AX8" s="7">
-        <v>355.94</v>
-      </c>
-      <c r="AY8" s="7">
-        <v>357.52</v>
-      </c>
-      <c r="AZ8" s="7">
-        <v>359.04</v>
-      </c>
-      <c r="BA8" s="7">
-        <v>360.5</v>
-      </c>
-      <c r="BB8" s="7">
-        <v>361.92</v>
-      </c>
-      <c r="BC8" s="7">
-        <v>363.3</v>
-      </c>
-      <c r="BD8" s="7">
-        <v>364.64</v>
-      </c>
-      <c r="BE8" s="7">
-        <v>365.96</v>
-      </c>
-      <c r="BF8" s="7">
-        <v>367.25</v>
-      </c>
-      <c r="BG8" s="7">
-        <v>368.52</v>
-      </c>
-      <c r="BH8" s="7">
-        <v>369.76</v>
-      </c>
-      <c r="BI8" s="7">
-        <v>370.98</v>
-      </c>
-      <c r="BJ8" s="7">
-        <v>372.2</v>
-      </c>
-      <c r="BK8" s="7">
-        <v>373.4</v>
-      </c>
-      <c r="BL8" s="7">
-        <v>374.59</v>
-      </c>
-      <c r="BM8" s="7">
-        <v>375.78</v>
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8">
+        <v>9183.5894150354088</v>
+      </c>
+      <c r="F8" s="8">
+        <v>9162.0808402073053</v>
+      </c>
+      <c r="G8" s="8">
+        <v>9472.9255093985612</v>
+      </c>
+      <c r="H8" s="8">
+        <v>9743.1555825048345</v>
+      </c>
+      <c r="I8" s="8">
+        <v>10140.034551008501</v>
+      </c>
+      <c r="J8" s="8">
+        <v>10395.048451497019</v>
+      </c>
+      <c r="K8" s="8">
+        <v>10783.804500783688</v>
+      </c>
+      <c r="L8" s="8">
+        <v>11264.429622341459</v>
+      </c>
+      <c r="M8" s="8">
+        <v>11755.008180122873</v>
+      </c>
+      <c r="N8" s="8">
+        <v>12322.468452183464</v>
+      </c>
+      <c r="O8">
+        <v>12832.381845847585</v>
+      </c>
+      <c r="P8">
+        <v>12970.929101788186</v>
+      </c>
+      <c r="Q8">
+        <v>13206.150537142334</v>
+      </c>
+      <c r="R8">
+        <v>13541.707185923324</v>
+      </c>
+      <c r="S8">
+        <v>14011.349205441211</v>
+      </c>
+      <c r="T8">
+        <v>14441.635109316187</v>
+      </c>
+      <c r="U8">
+        <v>14825.471644147494</v>
+      </c>
+      <c r="V8">
+        <v>15109.087372864873</v>
+      </c>
+      <c r="W8">
+        <v>15058.176118617501</v>
+      </c>
+      <c r="X8">
+        <v>14595.970574439118</v>
+      </c>
+      <c r="Y8">
+        <v>14945.02728614413</v>
+      </c>
+      <c r="Z8">
+        <v>15215.142951937487</v>
+      </c>
+      <c r="AA8">
+        <v>15551.614859221801</v>
+      </c>
+      <c r="AB8">
+        <v>15781.293349502901</v>
+      </c>
+      <c r="AC8">
+        <v>16239.194095438579</v>
+      </c>
+      <c r="AD8">
+        <v>16794.293014289473</v>
+      </c>
+      <c r="AE8">
+        <v>17307.77292207718</v>
+      </c>
+      <c r="AF8">
+        <v>17836.131367052982</v>
+      </c>
+      <c r="AG8">
+        <v>18320.317862413765</v>
+      </c>
+      <c r="AH8">
+        <v>18812.573202375097</v>
+      </c>
+      <c r="AI8">
+        <v>19288.28417289233</v>
+      </c>
+      <c r="AJ8">
+        <v>19737.189866944296</v>
+      </c>
+      <c r="AK8">
+        <v>20211.233886302012</v>
+      </c>
+      <c r="AL8">
+        <v>20705.7215097189</v>
+      </c>
+      <c r="AM8">
+        <v>21201.348737515302</v>
+      </c>
+      <c r="AN8">
+        <v>21719.76134291304</v>
+      </c>
+      <c r="AO8">
+        <v>22237.132663287837</v>
+      </c>
+      <c r="AP8">
+        <v>22757.947374924202</v>
+      </c>
+      <c r="AQ8">
+        <v>23290.263150548581</v>
+      </c>
+      <c r="AR8">
+        <v>23841.205866807006</v>
+      </c>
+      <c r="AS8">
+        <v>24431.831385358153</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7">
-        <v>9371.5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>9361.2999999999993</v>
-      </c>
-      <c r="G9" s="7">
-        <v>9691.1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>9957.7000000000007</v>
-      </c>
-      <c r="I9" s="7">
-        <v>10358.9</v>
-      </c>
-      <c r="J9" s="7">
-        <v>10637</v>
-      </c>
-      <c r="K9" s="7">
-        <v>11038.3</v>
-      </c>
-      <c r="L9" s="7">
-        <v>11529.2</v>
-      </c>
-      <c r="M9" s="7">
-        <v>12045.8</v>
-      </c>
-      <c r="N9" s="7">
-        <v>12623.4</v>
-      </c>
-      <c r="O9" s="7">
-        <v>13138</v>
-      </c>
-      <c r="P9" s="7">
-        <v>13263.4</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>13488.4</v>
-      </c>
-      <c r="R9" s="7">
-        <v>13865.5</v>
-      </c>
-      <c r="S9" s="7">
-        <v>14399.7</v>
-      </c>
-      <c r="T9" s="7">
-        <v>14901.3</v>
-      </c>
-      <c r="U9" s="7">
-        <v>15315.9</v>
-      </c>
-      <c r="V9" s="7">
-        <v>15623.9</v>
-      </c>
-      <c r="W9" s="7">
-        <v>15643</v>
-      </c>
-      <c r="X9" s="7">
-        <v>15236.3</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>15649</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>15891.5</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>16254</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>16553.3</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>16932.099999999999</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>17390.3</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>17680.3</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>18079.099999999999</v>
-      </c>
-      <c r="AG9" s="7">
-        <v>18606.8</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>19032.7</v>
-      </c>
-      <c r="AI9" s="7">
-        <v>18384.7</v>
-      </c>
-      <c r="AJ9" s="7">
-        <v>19438.87</v>
-      </c>
-      <c r="AK9" s="7">
-        <v>20303.060000000001</v>
-      </c>
-      <c r="AL9" s="7">
-        <v>20862.09</v>
-      </c>
-      <c r="AM9" s="7">
-        <v>21484.09</v>
-      </c>
-      <c r="AN9" s="7">
-        <v>22061.07</v>
-      </c>
-      <c r="AO9" s="7">
-        <v>22609.41</v>
-      </c>
-      <c r="AP9" s="7">
-        <v>23060.26</v>
-      </c>
-      <c r="AQ9" s="7">
-        <v>23516.82</v>
-      </c>
-      <c r="AR9" s="7">
-        <v>24014.52</v>
-      </c>
-      <c r="AS9" s="7">
-        <v>24555</v>
-      </c>
-      <c r="AT9" s="7">
-        <v>25077.85</v>
-      </c>
-      <c r="AU9" s="7">
-        <v>25619.29</v>
-      </c>
-      <c r="AV9" s="7">
-        <v>26179.599999999999</v>
-      </c>
-      <c r="AW9" s="7">
-        <v>26734.86</v>
-      </c>
-      <c r="AX9" s="7">
-        <v>27278.78</v>
-      </c>
-      <c r="AY9" s="7">
-        <v>27816.73</v>
-      </c>
-      <c r="AZ9" s="7">
-        <v>28383.759999999998</v>
-      </c>
-      <c r="BA9" s="7">
-        <v>28943.43</v>
-      </c>
-      <c r="BB9" s="7">
-        <v>29525.47</v>
-      </c>
-      <c r="BC9" s="7">
-        <v>30134.959999999999</v>
-      </c>
-      <c r="BD9" s="7">
-        <v>30703.85</v>
-      </c>
-      <c r="BE9" s="7">
-        <v>31299</v>
-      </c>
-      <c r="BF9" s="7">
-        <v>31912.46</v>
-      </c>
-      <c r="BG9" s="7">
-        <v>32530.06</v>
-      </c>
-      <c r="BH9" s="7">
-        <v>33192.910000000003</v>
-      </c>
-      <c r="BI9" s="7">
-        <v>33877.379999999997</v>
-      </c>
-      <c r="BJ9" s="7">
-        <v>34526.269999999997</v>
-      </c>
-      <c r="BK9" s="7">
-        <v>35184.42</v>
-      </c>
-      <c r="BL9" s="7">
-        <v>35901.26</v>
-      </c>
-      <c r="BM9" s="7">
-        <v>36652.42</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="8">
+        <v>84.485124999999996</v>
+      </c>
+      <c r="F9" s="8">
+        <v>84.437971000000005</v>
+      </c>
+      <c r="G9" s="8">
+        <v>85.782972999999998</v>
+      </c>
+      <c r="H9" s="8">
+        <v>87.423616999999993</v>
+      </c>
+      <c r="I9" s="8">
+        <v>89.091331000000011</v>
+      </c>
+      <c r="J9" s="8">
+        <v>91.029066999999998</v>
+      </c>
+      <c r="K9" s="8">
+        <v>94.022224000000008</v>
+      </c>
+      <c r="L9" s="8">
+        <v>94.602213000000006</v>
+      </c>
+      <c r="M9" s="8">
+        <v>95.017899</v>
+      </c>
+      <c r="N9" s="8">
+        <v>96.651957999999993</v>
+      </c>
+      <c r="O9">
+        <v>98.814458999999999</v>
+      </c>
+      <c r="P9">
+        <v>96.168154999999999</v>
+      </c>
+      <c r="Q9">
+        <v>97.645117999999997</v>
+      </c>
+      <c r="R9">
+        <v>97.977654999999999</v>
+      </c>
+      <c r="S9">
+        <v>100.16179700000001</v>
+      </c>
+      <c r="T9">
+        <v>100.28151099999999</v>
+      </c>
+      <c r="U9">
+        <v>99.629469</v>
+      </c>
+      <c r="V9">
+        <v>101.29596099999999</v>
+      </c>
+      <c r="W9">
+        <v>99.274527000000006</v>
+      </c>
+      <c r="X9">
+        <v>94.559406999999993</v>
+      </c>
+      <c r="Y9">
+        <v>97.722053000000002</v>
+      </c>
+      <c r="Z9">
+        <v>97.301269000000005</v>
+      </c>
+      <c r="AA9">
+        <v>96.065025000000006</v>
+      </c>
+      <c r="AB9">
+        <v>96.260848999999993</v>
+      </c>
+      <c r="AC9">
+        <v>96.560912999999999</v>
+      </c>
+      <c r="AD9">
+        <v>97.724097999999998</v>
+      </c>
+      <c r="AE9">
+        <v>98.345344999999995</v>
+      </c>
+      <c r="AF9">
+        <v>99.127251000000001</v>
+      </c>
+      <c r="AG9">
+        <v>99.904662999999999</v>
+      </c>
+      <c r="AH9">
+        <v>100.677559</v>
+      </c>
+      <c r="AI9">
+        <v>101.03877300000001</v>
+      </c>
+      <c r="AJ9">
+        <v>101.272942</v>
+      </c>
+      <c r="AK9">
+        <v>101.716286</v>
+      </c>
+      <c r="AL9">
+        <v>101.97007000000001</v>
+      </c>
+      <c r="AM9">
+        <v>102.180122</v>
+      </c>
+      <c r="AN9">
+        <v>102.338669</v>
+      </c>
+      <c r="AO9">
+        <v>102.427567</v>
+      </c>
+      <c r="AP9">
+        <v>102.457588</v>
+      </c>
+      <c r="AQ9">
+        <v>102.513184</v>
+      </c>
+      <c r="AR9">
+        <v>102.617531</v>
+      </c>
+      <c r="AS9">
+        <v>102.80903600000001</v>
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
@@ -1981,199 +1723,141 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3">
-        <v>84.43</v>
-      </c>
-      <c r="F10" s="4">
-        <v>84.38</v>
-      </c>
-      <c r="G10" s="4">
-        <v>85.72</v>
-      </c>
-      <c r="H10" s="4">
-        <v>87.27</v>
-      </c>
-      <c r="I10" s="4">
-        <v>88.98</v>
-      </c>
-      <c r="J10" s="4">
-        <v>90.93</v>
-      </c>
-      <c r="K10" s="4">
-        <v>93.93</v>
-      </c>
-      <c r="L10" s="4">
-        <v>94.51</v>
-      </c>
-      <c r="M10" s="4">
-        <v>94.92</v>
-      </c>
-      <c r="N10" s="4">
-        <v>96.54</v>
-      </c>
-      <c r="O10" s="4">
-        <v>98.7</v>
-      </c>
-      <c r="P10" s="4">
-        <v>96.06</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>97.54</v>
-      </c>
-      <c r="R10" s="4">
-        <v>97.83</v>
-      </c>
-      <c r="S10" s="4">
-        <v>100</v>
-      </c>
-      <c r="T10" s="4">
-        <v>100.1</v>
-      </c>
-      <c r="U10" s="4">
-        <v>99.39</v>
-      </c>
-      <c r="V10" s="4">
-        <v>100.89</v>
-      </c>
-      <c r="W10" s="4">
-        <v>98.75</v>
-      </c>
-      <c r="X10" s="4">
-        <v>93.94</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>97.51</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>96.87</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>94.39</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>97.13</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>98.3</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>97.41</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>97.38</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>97.66</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>101.23</v>
-      </c>
-      <c r="AH10" s="6">
-        <v>100.47</v>
-      </c>
-      <c r="AI10" s="7">
-        <v>92.97</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>97</v>
-      </c>
-      <c r="AK10" s="4">
-        <v>98.82</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>99.74</v>
-      </c>
-      <c r="AM10" s="4">
-        <v>99.64</v>
-      </c>
-      <c r="AN10" s="4">
-        <v>99.84</v>
-      </c>
-      <c r="AO10" s="4">
-        <v>100.05</v>
-      </c>
-      <c r="AP10" s="4">
-        <v>99.92</v>
-      </c>
-      <c r="AQ10" s="4">
-        <v>99.84</v>
-      </c>
-      <c r="AR10" s="4">
-        <v>99.87</v>
-      </c>
-      <c r="AS10" s="4">
-        <v>99.96</v>
-      </c>
-      <c r="AT10" s="4">
-        <v>100.1</v>
-      </c>
-      <c r="AU10" s="4">
-        <v>100.32</v>
-      </c>
-      <c r="AV10" s="4">
-        <v>100.43</v>
-      </c>
-      <c r="AW10" s="4">
-        <v>100.57</v>
-      </c>
-      <c r="AX10" s="4">
-        <v>100.76</v>
-      </c>
-      <c r="AY10" s="4">
-        <v>101.04</v>
-      </c>
-      <c r="AZ10" s="4">
-        <v>101.41</v>
-      </c>
-      <c r="BA10" s="4">
-        <v>101.85</v>
-      </c>
-      <c r="BB10" s="4">
-        <v>102.3</v>
-      </c>
-      <c r="BC10" s="4">
-        <v>102.71</v>
-      </c>
-      <c r="BD10" s="4">
-        <v>103.2</v>
-      </c>
-      <c r="BE10" s="4">
-        <v>103.75</v>
-      </c>
-      <c r="BF10" s="4">
-        <v>104.3</v>
-      </c>
-      <c r="BG10" s="4">
-        <v>104.84</v>
-      </c>
-      <c r="BH10" s="4">
-        <v>105.38</v>
-      </c>
-      <c r="BI10" s="4">
-        <v>106</v>
-      </c>
-      <c r="BJ10" s="4">
-        <v>106.59</v>
-      </c>
-      <c r="BK10" s="4">
-        <v>107.1</v>
-      </c>
-      <c r="BL10" s="4">
-        <v>107.78</v>
-      </c>
-      <c r="BM10" s="4">
-        <v>108.68</v>
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>6332.8442982795996</v>
+      </c>
+      <c r="F10">
+        <v>6284.8510866440201</v>
+      </c>
+      <c r="G10">
+        <v>6401.4779679755302</v>
+      </c>
+      <c r="H10">
+        <v>6539.9404324918196</v>
+      </c>
+      <c r="I10">
+        <v>6618.5637829636898</v>
+      </c>
+      <c r="J10">
+        <v>6701.2708224385296</v>
+      </c>
+      <c r="K10">
+        <v>6906.4679710187902</v>
+      </c>
+      <c r="L10">
+        <v>6969.6776894828499</v>
+      </c>
+      <c r="M10">
+        <v>6984.64826129008</v>
+      </c>
+      <c r="N10">
+        <v>7042.3170147650999</v>
+      </c>
+      <c r="O10">
+        <v>7205.7172107933202</v>
+      </c>
+      <c r="P10">
+        <v>7095.7313348534299</v>
+      </c>
+      <c r="Q10">
+        <v>7137.3559020524299</v>
+      </c>
+      <c r="R10">
+        <v>7182.0633658181696</v>
+      </c>
+      <c r="S10">
+        <v>7305.7329359224696</v>
+      </c>
+      <c r="T10">
+        <v>7329.7907468070698</v>
+      </c>
+      <c r="U10">
+        <v>7273.0825358900602</v>
+      </c>
+      <c r="V10">
+        <v>7390.7206193966704</v>
+      </c>
+      <c r="W10">
+        <v>7191.6050965455697</v>
+      </c>
+      <c r="X10">
+        <v>6733.7188081713903</v>
+      </c>
+      <c r="Y10">
+        <v>6956.3851836242602</v>
+      </c>
+      <c r="Z10">
+        <v>6825.2875646933999</v>
+      </c>
+      <c r="AA10">
+        <v>6702.1867585431</v>
+      </c>
+      <c r="AB10">
+        <v>6722.38901168967</v>
+      </c>
+      <c r="AC10">
+        <v>6730.7951330101196</v>
+      </c>
+      <c r="AD10">
+        <v>6778.1625222575003</v>
+      </c>
+      <c r="AE10">
+        <v>6764.4735758921297</v>
+      </c>
+      <c r="AF10">
+        <v>6825.5741604938103</v>
+      </c>
+      <c r="AG10">
+        <v>6883.8272458470801</v>
+      </c>
+      <c r="AH10">
+        <v>6940.7203589071296</v>
+      </c>
+      <c r="AI10">
+        <v>6969.8353698036099</v>
+      </c>
+      <c r="AJ10">
+        <v>6992.3704744303705</v>
+      </c>
+      <c r="AK10">
+        <v>7041.6825245770797</v>
+      </c>
+      <c r="AL10">
+        <v>7075.5995425707497</v>
+      </c>
+      <c r="AM10">
+        <v>7097.8266050314696</v>
+      </c>
+      <c r="AN10">
+        <v>7123.6496454480002</v>
+      </c>
+      <c r="AO10">
+        <v>7141.9130228272297</v>
+      </c>
+      <c r="AP10">
+        <v>7159.7493255981399</v>
+      </c>
+      <c r="AQ10">
+        <v>7167.2242905611502</v>
+      </c>
+      <c r="AR10">
+        <v>7183.8621709928802</v>
+      </c>
+      <c r="AS10">
+        <v>7209.9302217860104</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2181,133 +1865,193 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>249.62</v>
-      </c>
-      <c r="F11">
-        <v>252.98</v>
-      </c>
-      <c r="G11">
-        <v>256.51</v>
-      </c>
-      <c r="H11">
-        <v>259.92</v>
-      </c>
-      <c r="I11">
-        <v>263.13</v>
-      </c>
-      <c r="J11">
-        <v>266.27999999999997</v>
-      </c>
-      <c r="K11">
-        <v>269.39</v>
-      </c>
-      <c r="L11">
-        <v>272.64999999999998</v>
-      </c>
-      <c r="M11">
-        <v>275.85000000000002</v>
-      </c>
-      <c r="N11">
-        <v>279.04000000000002</v>
-      </c>
-      <c r="O11">
-        <v>282.16000000000003</v>
-      </c>
-      <c r="P11">
-        <v>284.97000000000003</v>
-      </c>
-      <c r="Q11">
-        <v>287.62</v>
-      </c>
-      <c r="R11">
-        <v>290.11</v>
-      </c>
-      <c r="S11">
-        <v>292.81</v>
-      </c>
-      <c r="T11">
-        <v>295.52</v>
-      </c>
-      <c r="U11">
-        <v>299.56594848632801</v>
-      </c>
-      <c r="V11">
-        <v>302.40954589843801</v>
-      </c>
-      <c r="W11">
-        <v>305.36541748046898</v>
-      </c>
-      <c r="X11">
-        <v>308.35592651367199</v>
-      </c>
-      <c r="Y11">
-        <v>311.37261962890602</v>
-      </c>
-      <c r="Z11">
-        <v>314.37658691406301</v>
-      </c>
-      <c r="AA11">
-        <v>317.41369628906301</v>
-      </c>
-      <c r="AB11">
-        <v>320.48211669921898</v>
-      </c>
-      <c r="AC11">
-        <v>323.57778930664102</v>
-      </c>
-      <c r="AD11">
-        <v>326.69729614257801</v>
-      </c>
-      <c r="AE11">
-        <v>329.83734130859398</v>
-      </c>
-      <c r="AF11">
-        <v>332.99530029296898</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>336.16876220703102</v>
-      </c>
-      <c r="AH11">
-        <v>339.35534667968801</v>
-      </c>
-      <c r="AI11">
-        <v>342.55276489257801</v>
-      </c>
-      <c r="AJ11">
-        <v>345.75851440429699</v>
-      </c>
-      <c r="AK11">
-        <v>348.97048950195301</v>
-      </c>
-      <c r="AL11">
-        <v>352.18600463867199</v>
-      </c>
-      <c r="AM11">
-        <v>355.40274047851602</v>
-      </c>
-      <c r="AN11">
-        <v>358.61898803710898</v>
-      </c>
-      <c r="AO11">
-        <v>361.83401489257801</v>
-      </c>
-      <c r="AP11">
-        <v>365.04650878906301</v>
-      </c>
-      <c r="AQ11">
-        <v>368.25674438476602</v>
-      </c>
-      <c r="AR11">
-        <v>371.46426391601602</v>
-      </c>
-      <c r="AS11">
-        <v>374.66973876953102</v>
+      <c r="E11" s="7">
+        <v>249.6</v>
+      </c>
+      <c r="F11" s="7">
+        <v>253</v>
+      </c>
+      <c r="G11" s="7">
+        <v>256.5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="I11" s="7">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="J11" s="7">
+        <v>266.3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="L11" s="7">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="M11" s="7">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="N11" s="7">
+        <v>279</v>
+      </c>
+      <c r="O11" s="7">
+        <v>282.2</v>
+      </c>
+      <c r="P11" s="7">
+        <v>285</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>287.60000000000002</v>
+      </c>
+      <c r="R11" s="7">
+        <v>290.10000000000002</v>
+      </c>
+      <c r="S11" s="7">
+        <v>292.8</v>
+      </c>
+      <c r="T11" s="7">
+        <v>295.5</v>
+      </c>
+      <c r="U11" s="7">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="V11" s="7">
+        <v>301.2</v>
+      </c>
+      <c r="W11" s="7">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="X11" s="7">
+        <v>306.8</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>309.3</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>313.8</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>316</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>318.3</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>320.60000000000002</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>322.89999999999998</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>325</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>326.7</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>328.2</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>331.5</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>332</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>333.15</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>334.68</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>336.35</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>338.14</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>339.95</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>341.78</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>343.61</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>345.45</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>347.29</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>349.11</v>
+      </c>
+      <c r="AU11" s="7">
+        <v>350.88</v>
+      </c>
+      <c r="AV11" s="7">
+        <v>352.61</v>
+      </c>
+      <c r="AW11" s="7">
+        <v>354.3</v>
+      </c>
+      <c r="AX11" s="7">
+        <v>355.94</v>
+      </c>
+      <c r="AY11" s="7">
+        <v>357.52</v>
+      </c>
+      <c r="AZ11" s="7">
+        <v>359.04</v>
+      </c>
+      <c r="BA11" s="7">
+        <v>360.5</v>
+      </c>
+      <c r="BB11" s="7">
+        <v>361.92</v>
+      </c>
+      <c r="BC11" s="7">
+        <v>363.3</v>
+      </c>
+      <c r="BD11" s="7">
+        <v>364.64</v>
+      </c>
+      <c r="BE11" s="7">
+        <v>365.96</v>
+      </c>
+      <c r="BF11" s="7">
+        <v>367.25</v>
+      </c>
+      <c r="BG11" s="7">
+        <v>368.52</v>
+      </c>
+      <c r="BH11" s="7">
+        <v>369.76</v>
+      </c>
+      <c r="BI11" s="7">
+        <v>370.98</v>
+      </c>
+      <c r="BJ11" s="7">
+        <v>372.2</v>
+      </c>
+      <c r="BK11" s="7">
+        <v>373.4</v>
+      </c>
+      <c r="BL11" s="7">
+        <v>374.59</v>
+      </c>
+      <c r="BM11" s="7">
+        <v>375.78</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -2315,136 +2059,196 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>8027.1</v>
-      </c>
-      <c r="F12">
-        <v>8008.3</v>
-      </c>
-      <c r="G12">
-        <v>8280</v>
-      </c>
-      <c r="H12">
-        <v>8516.2000000000007</v>
-      </c>
-      <c r="I12">
-        <v>8863.1</v>
-      </c>
-      <c r="J12">
-        <v>9086</v>
-      </c>
-      <c r="K12">
-        <v>9425.7999999999993</v>
-      </c>
-      <c r="L12">
-        <v>9845.9</v>
-      </c>
-      <c r="M12">
-        <v>10274.700000000001</v>
-      </c>
-      <c r="N12">
-        <v>10770.7</v>
-      </c>
-      <c r="O12">
-        <v>11216.4</v>
-      </c>
-      <c r="P12">
-        <v>11337.5</v>
-      </c>
-      <c r="Q12">
-        <v>11543.1</v>
-      </c>
-      <c r="R12">
-        <v>11836.4</v>
-      </c>
-      <c r="S12">
-        <v>12246.9</v>
-      </c>
-      <c r="T12">
-        <v>12623</v>
-      </c>
-      <c r="U12">
-        <v>12787.001024248853</v>
-      </c>
-      <c r="V12">
-        <v>13046.282149936465</v>
-      </c>
-      <c r="W12">
-        <v>13213.15397973457</v>
-      </c>
-      <c r="X12">
-        <v>12830.021069970604</v>
-      </c>
-      <c r="Y12">
-        <v>13131.395771439722</v>
-      </c>
-      <c r="Z12">
-        <v>13613.685287409804</v>
-      </c>
-      <c r="AA12">
-        <v>14069.434424638202</v>
-      </c>
-      <c r="AB12">
-        <v>14503.036729118399</v>
-      </c>
-      <c r="AC12">
-        <v>14874.772289700993</v>
-      </c>
-      <c r="AD12">
-        <v>15227.700952725696</v>
-      </c>
-      <c r="AE12">
-        <v>15605.659782155119</v>
-      </c>
-      <c r="AF12">
-        <v>16026.761375878328</v>
-      </c>
-      <c r="AG12">
-        <v>16488.660814153965</v>
-      </c>
-      <c r="AH12">
-        <v>16954.101401855147</v>
-      </c>
-      <c r="AI12">
-        <v>17432.650765309892</v>
-      </c>
-      <c r="AJ12">
-        <v>17876.278403224631</v>
-      </c>
-      <c r="AK12">
-        <v>18332.188954070305</v>
-      </c>
-      <c r="AL12">
-        <v>18816.07602262231</v>
-      </c>
-      <c r="AM12">
-        <v>19320.940227983647</v>
-      </c>
-      <c r="AN12">
-        <v>19866.544788115913</v>
-      </c>
-      <c r="AO12">
-        <v>20402.325229048871</v>
-      </c>
-      <c r="AP12">
-        <v>20921.73877141931</v>
-      </c>
-      <c r="AQ12">
-        <v>21429.997085034287</v>
-      </c>
-      <c r="AR12">
-        <v>21946.573727802494</v>
-      </c>
-      <c r="AS12">
-        <v>22500.649186123494</v>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7">
+        <v>9371.5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>9361.2999999999993</v>
+      </c>
+      <c r="G12" s="7">
+        <v>9691.1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9957.7000000000007</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10358.9</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10637</v>
+      </c>
+      <c r="K12" s="7">
+        <v>11038.3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>11529.2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>12045.8</v>
+      </c>
+      <c r="N12" s="7">
+        <v>12623.4</v>
+      </c>
+      <c r="O12" s="7">
+        <v>13138</v>
+      </c>
+      <c r="P12" s="7">
+        <v>13263.4</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>13488.4</v>
+      </c>
+      <c r="R12" s="7">
+        <v>13865.5</v>
+      </c>
+      <c r="S12" s="7">
+        <v>14399.7</v>
+      </c>
+      <c r="T12" s="7">
+        <v>14901.3</v>
+      </c>
+      <c r="U12" s="7">
+        <v>15315.9</v>
+      </c>
+      <c r="V12" s="7">
+        <v>15623.9</v>
+      </c>
+      <c r="W12" s="7">
+        <v>15643</v>
+      </c>
+      <c r="X12" s="7">
+        <v>15236.3</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>15649</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>15891.5</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>16254</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>16553.3</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>16932.099999999999</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>17390.3</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>17680.3</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>18079.099999999999</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>18606.8</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>19032.7</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>18384.7</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>19438.87</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>20303.060000000001</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>20862.09</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>21484.09</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>22061.07</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>22609.41</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>23060.26</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>23516.82</v>
+      </c>
+      <c r="AR12" s="7">
+        <v>24014.52</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>24555</v>
+      </c>
+      <c r="AT12" s="7">
+        <v>25077.85</v>
+      </c>
+      <c r="AU12" s="7">
+        <v>25619.29</v>
+      </c>
+      <c r="AV12" s="7">
+        <v>26179.599999999999</v>
+      </c>
+      <c r="AW12" s="7">
+        <v>26734.86</v>
+      </c>
+      <c r="AX12" s="7">
+        <v>27278.78</v>
+      </c>
+      <c r="AY12" s="7">
+        <v>27816.73</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>28383.759999999998</v>
+      </c>
+      <c r="BA12" s="7">
+        <v>28943.43</v>
+      </c>
+      <c r="BB12" s="7">
+        <v>29525.47</v>
+      </c>
+      <c r="BC12" s="7">
+        <v>30134.959999999999</v>
+      </c>
+      <c r="BD12" s="7">
+        <v>30703.85</v>
+      </c>
+      <c r="BE12" s="7">
+        <v>31299</v>
+      </c>
+      <c r="BF12" s="7">
+        <v>31912.46</v>
+      </c>
+      <c r="BG12" s="7">
+        <v>32530.06</v>
+      </c>
+      <c r="BH12" s="7">
+        <v>33192.910000000003</v>
+      </c>
+      <c r="BI12" s="7">
+        <v>33877.379999999997</v>
+      </c>
+      <c r="BJ12" s="7">
+        <v>34526.269999999997</v>
+      </c>
+      <c r="BK12" s="7">
+        <v>35184.42</v>
+      </c>
+      <c r="BL12" s="7">
+        <v>35901.26</v>
+      </c>
+      <c r="BM12" s="7">
+        <v>36652.42</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2452,127 +2256,666 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3">
+        <v>84.43</v>
+      </c>
+      <c r="F13" s="4">
+        <v>84.38</v>
+      </c>
+      <c r="G13" s="4">
+        <v>85.72</v>
+      </c>
+      <c r="H13" s="4">
+        <v>87.27</v>
+      </c>
+      <c r="I13" s="4">
+        <v>88.98</v>
+      </c>
+      <c r="J13" s="4">
+        <v>90.93</v>
+      </c>
+      <c r="K13" s="4">
+        <v>93.93</v>
+      </c>
+      <c r="L13" s="4">
+        <v>94.51</v>
+      </c>
+      <c r="M13" s="4">
+        <v>94.92</v>
+      </c>
+      <c r="N13" s="4">
+        <v>96.54</v>
+      </c>
+      <c r="O13" s="4">
+        <v>98.7</v>
+      </c>
+      <c r="P13" s="4">
+        <v>96.06</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>97.54</v>
+      </c>
+      <c r="R13" s="4">
+        <v>97.83</v>
+      </c>
+      <c r="S13" s="4">
+        <v>100</v>
+      </c>
+      <c r="T13" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="U13" s="4">
+        <v>99.39</v>
+      </c>
+      <c r="V13" s="4">
+        <v>100.89</v>
+      </c>
+      <c r="W13" s="4">
+        <v>98.75</v>
+      </c>
+      <c r="X13" s="4">
+        <v>93.94</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>97.51</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>96.87</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>94.39</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>97.13</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>98.3</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>97.41</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>97.38</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>97.66</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>101.23</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>100.47</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>92.97</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>97</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>98.82</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>99.74</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>99.64</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>99.84</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>100.05</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>99.92</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>99.84</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>99.87</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>99.96</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>100.32</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>100.43</v>
+      </c>
+      <c r="AW13" s="4">
+        <v>100.57</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>100.76</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>101.04</v>
+      </c>
+      <c r="AZ13" s="4">
+        <v>101.41</v>
+      </c>
+      <c r="BA13" s="4">
+        <v>101.85</v>
+      </c>
+      <c r="BB13" s="4">
+        <v>102.3</v>
+      </c>
+      <c r="BC13" s="4">
+        <v>102.71</v>
+      </c>
+      <c r="BD13" s="4">
+        <v>103.2</v>
+      </c>
+      <c r="BE13" s="4">
+        <v>103.75</v>
+      </c>
+      <c r="BF13" s="4">
+        <v>104.3</v>
+      </c>
+      <c r="BG13" s="4">
+        <v>104.84</v>
+      </c>
+      <c r="BH13" s="4">
+        <v>105.38</v>
+      </c>
+      <c r="BI13" s="4">
+        <v>106</v>
+      </c>
+      <c r="BJ13" s="4">
+        <v>106.59</v>
+      </c>
+      <c r="BK13" s="4">
+        <v>107.1</v>
+      </c>
+      <c r="BL13" s="4">
+        <v>107.78</v>
+      </c>
+      <c r="BM13" s="4">
+        <v>108.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>249.62</v>
+      </c>
+      <c r="F15">
+        <v>252.98</v>
+      </c>
+      <c r="G15">
+        <v>256.51</v>
+      </c>
+      <c r="H15">
+        <v>259.92</v>
+      </c>
+      <c r="I15">
+        <v>263.13</v>
+      </c>
+      <c r="J15">
+        <v>266.27999999999997</v>
+      </c>
+      <c r="K15">
+        <v>269.39</v>
+      </c>
+      <c r="L15">
+        <v>272.64999999999998</v>
+      </c>
+      <c r="M15">
+        <v>275.85000000000002</v>
+      </c>
+      <c r="N15">
+        <v>279.04000000000002</v>
+      </c>
+      <c r="O15">
+        <v>282.16000000000003</v>
+      </c>
+      <c r="P15">
+        <v>284.97000000000003</v>
+      </c>
+      <c r="Q15">
+        <v>287.62</v>
+      </c>
+      <c r="R15">
+        <v>290.11</v>
+      </c>
+      <c r="S15">
+        <v>292.81</v>
+      </c>
+      <c r="T15">
+        <v>295.52</v>
+      </c>
+      <c r="U15">
+        <v>299.56594848632801</v>
+      </c>
+      <c r="V15">
+        <v>302.40954589843801</v>
+      </c>
+      <c r="W15">
+        <v>305.36541748046898</v>
+      </c>
+      <c r="X15">
+        <v>308.35592651367199</v>
+      </c>
+      <c r="Y15">
+        <v>311.37261962890602</v>
+      </c>
+      <c r="Z15">
+        <v>314.37658691406301</v>
+      </c>
+      <c r="AA15">
+        <v>317.41369628906301</v>
+      </c>
+      <c r="AB15">
+        <v>320.48211669921898</v>
+      </c>
+      <c r="AC15">
+        <v>323.57778930664102</v>
+      </c>
+      <c r="AD15">
+        <v>326.69729614257801</v>
+      </c>
+      <c r="AE15">
+        <v>329.83734130859398</v>
+      </c>
+      <c r="AF15">
+        <v>332.99530029296898</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>336.16876220703102</v>
+      </c>
+      <c r="AH15">
+        <v>339.35534667968801</v>
+      </c>
+      <c r="AI15">
+        <v>342.55276489257801</v>
+      </c>
+      <c r="AJ15">
+        <v>345.75851440429699</v>
+      </c>
+      <c r="AK15">
+        <v>348.97048950195301</v>
+      </c>
+      <c r="AL15">
+        <v>352.18600463867199</v>
+      </c>
+      <c r="AM15">
+        <v>355.40274047851602</v>
+      </c>
+      <c r="AN15">
+        <v>358.61898803710898</v>
+      </c>
+      <c r="AO15">
+        <v>361.83401489257801</v>
+      </c>
+      <c r="AP15">
+        <v>365.04650878906301</v>
+      </c>
+      <c r="AQ15">
+        <v>368.25674438476602</v>
+      </c>
+      <c r="AR15">
+        <v>371.46426391601602</v>
+      </c>
+      <c r="AS15">
+        <v>374.66973876953102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>8027.1</v>
+      </c>
+      <c r="F16">
+        <v>8008.3</v>
+      </c>
+      <c r="G16">
+        <v>8280</v>
+      </c>
+      <c r="H16">
+        <v>8516.2000000000007</v>
+      </c>
+      <c r="I16">
+        <v>8863.1</v>
+      </c>
+      <c r="J16">
+        <v>9086</v>
+      </c>
+      <c r="K16">
+        <v>9425.7999999999993</v>
+      </c>
+      <c r="L16">
+        <v>9845.9</v>
+      </c>
+      <c r="M16">
+        <v>10274.700000000001</v>
+      </c>
+      <c r="N16">
+        <v>10770.7</v>
+      </c>
+      <c r="O16">
+        <v>11216.4</v>
+      </c>
+      <c r="P16">
+        <v>11337.5</v>
+      </c>
+      <c r="Q16">
+        <v>11543.1</v>
+      </c>
+      <c r="R16">
+        <v>11836.4</v>
+      </c>
+      <c r="S16">
+        <v>12246.9</v>
+      </c>
+      <c r="T16">
+        <v>12623</v>
+      </c>
+      <c r="U16">
+        <v>12787.001024248853</v>
+      </c>
+      <c r="V16">
+        <v>13046.282149936465</v>
+      </c>
+      <c r="W16">
+        <v>13213.15397973457</v>
+      </c>
+      <c r="X16">
+        <v>12830.021069970604</v>
+      </c>
+      <c r="Y16">
+        <v>13131.395771439722</v>
+      </c>
+      <c r="Z16">
+        <v>13613.685287409804</v>
+      </c>
+      <c r="AA16">
+        <v>14069.434424638202</v>
+      </c>
+      <c r="AB16">
+        <v>14503.036729118399</v>
+      </c>
+      <c r="AC16">
+        <v>14874.772289700993</v>
+      </c>
+      <c r="AD16">
+        <v>15227.700952725696</v>
+      </c>
+      <c r="AE16">
+        <v>15605.659782155119</v>
+      </c>
+      <c r="AF16">
+        <v>16026.761375878328</v>
+      </c>
+      <c r="AG16">
+        <v>16488.660814153965</v>
+      </c>
+      <c r="AH16">
+        <v>16954.101401855147</v>
+      </c>
+      <c r="AI16">
+        <v>17432.650765309892</v>
+      </c>
+      <c r="AJ16">
+        <v>17876.278403224631</v>
+      </c>
+      <c r="AK16">
+        <v>18332.188954070305</v>
+      </c>
+      <c r="AL16">
+        <v>18816.07602262231</v>
+      </c>
+      <c r="AM16">
+        <v>19320.940227983647</v>
+      </c>
+      <c r="AN16">
+        <v>19866.544788115913</v>
+      </c>
+      <c r="AO16">
+        <v>20402.325229048871</v>
+      </c>
+      <c r="AP16">
+        <v>20921.73877141931</v>
+      </c>
+      <c r="AQ16">
+        <v>21429.997085034287</v>
+      </c>
+      <c r="AR16">
+        <v>21946.573727802494</v>
+      </c>
+      <c r="AS16">
+        <v>22500.649186123494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
         <v>84.485124999999996</v>
       </c>
-      <c r="F13">
+      <c r="F17">
         <v>84.437971000000005</v>
       </c>
-      <c r="G13">
+      <c r="G17">
         <v>85.782972999999998</v>
       </c>
-      <c r="H13">
+      <c r="H17">
         <v>87.423616999999993</v>
       </c>
-      <c r="I13">
+      <c r="I17">
         <v>89.091331000000011</v>
       </c>
-      <c r="J13">
+      <c r="J17">
         <v>91.029066999999998</v>
       </c>
-      <c r="K13">
+      <c r="K17">
         <v>94.022224000000008</v>
       </c>
-      <c r="L13">
+      <c r="L17">
         <v>94.602213000000006</v>
       </c>
-      <c r="M13">
+      <c r="M17">
         <v>95.017899</v>
       </c>
-      <c r="N13">
+      <c r="N17">
         <v>96.651957999999993</v>
       </c>
-      <c r="O13">
+      <c r="O17">
         <v>98.814458999999999</v>
       </c>
-      <c r="P13">
+      <c r="P17">
         <v>96.168154999999999</v>
       </c>
-      <c r="Q13">
+      <c r="Q17">
         <v>97.645117999999997</v>
       </c>
-      <c r="R13">
+      <c r="R17">
         <v>97.977654999999999</v>
       </c>
-      <c r="S13">
+      <c r="S17">
         <v>100.16179700000001</v>
       </c>
-      <c r="T13">
+      <c r="T17">
         <v>100.28151099999999</v>
       </c>
-      <c r="U13">
+      <c r="U17">
         <v>100.018341064453</v>
       </c>
-      <c r="V13">
+      <c r="V17">
         <v>101.895538330078</v>
       </c>
-      <c r="W13">
+      <c r="W17">
         <v>100.526527404785</v>
       </c>
-      <c r="X13">
+      <c r="X17">
         <v>98.051170349121094</v>
       </c>
-      <c r="Y13">
+      <c r="Y17">
         <v>99.061332702636705</v>
       </c>
-      <c r="Z13">
+      <c r="Z17">
         <v>100.562995910645</v>
       </c>
-      <c r="AA13">
+      <c r="AA17">
         <v>101.648513793945</v>
       </c>
-      <c r="AB13">
+      <c r="AB17">
         <v>102.14591217041</v>
       </c>
-      <c r="AC13">
+      <c r="AC17">
         <v>102.17959594726599</v>
       </c>
-      <c r="AD13">
+      <c r="AD17">
         <v>102.078399658203</v>
       </c>
-      <c r="AE13">
+      <c r="AE17">
         <v>102.36636352539099</v>
       </c>
-      <c r="AF13">
+      <c r="AF17">
         <v>102.770713806152</v>
       </c>
-      <c r="AG13">
+      <c r="AG17">
         <v>103.30143737793</v>
       </c>
-      <c r="AH13">
+      <c r="AH17">
         <v>103.896690368652</v>
       </c>
-      <c r="AI13">
+      <c r="AI17">
         <v>104.67276763916</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ17">
         <v>105.16796875</v>
       </c>
-      <c r="AK13">
+      <c r="AK17">
         <v>105.81777191162099</v>
       </c>
-      <c r="AL13">
+      <c r="AL17">
         <v>106.65236663818401</v>
       </c>
-      <c r="AM13">
+      <c r="AM17">
         <v>107.454917907715</v>
       </c>
-      <c r="AN13">
+      <c r="AN17">
         <v>108.15700531005901</v>
       </c>
-      <c r="AO13">
+      <c r="AO17">
         <v>108.793869018555</v>
       </c>
-      <c r="AP13">
+      <c r="AP17">
         <v>109.50503540039099</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ17">
         <v>110.06471252441401</v>
       </c>
-      <c r="AR13">
+      <c r="AR17">
         <v>110.43196105957</v>
       </c>
-      <c r="AS13">
+      <c r="AS17">
         <v>110.95726776123</v>
       </c>
     </row>
